--- a/model_paper/data_types.xlsx
+++ b/model_paper/data_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9591B45-A1F1-4956-AC82-35BD2A2F5913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08155E4D-CFC1-4AB0-9DCC-2CC53B0BA455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Raster</t>
   </si>
@@ -84,6 +84,15 @@
   <si>
     <t>Generated for surface, elevation, 
 height and filtered height models.</t>
+  </si>
+  <si>
+    <t>Yes (from DEM and DSM)</t>
+  </si>
+  <si>
+    <t>Yes (from fDHM and DSM)</t>
+  </si>
+  <si>
+    <t>Yes (from DSM)</t>
   </si>
 </sst>
 </file>
@@ -432,14 +441,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,7 +546,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>18</v>
@@ -551,7 +560,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -565,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>

--- a/model_paper/data_types.xlsx
+++ b/model_paper/data_types.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08155E4D-CFC1-4AB0-9DCC-2CC53B0BA455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C224F-8F00-4072-B559-91A55F62EBBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,16 +66,10 @@
     <t>Laplacian filtered rasters</t>
   </si>
   <si>
-    <t>Haralick Textures</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>Generated for digital height model only.</t>
   </si>
   <si>
     <t>Generated for surface, elevation,
@@ -93,6 +87,13 @@
   </si>
   <si>
     <t>Yes (from DSM)</t>
+  </si>
+  <si>
+    <t>Haralick textures</t>
+  </si>
+  <si>
+    <t>Generated for digital height model only.
+8 textures total.</t>
   </si>
 </sst>
 </file>
@@ -441,7 +442,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -471,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -483,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -495,10 +496,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -507,10 +508,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -519,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -531,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -543,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -557,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
@@ -571,27 +572,27 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/model_paper/data_types.xlsx
+++ b/model_paper/data_types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C224F-8F00-4072-B559-91A55F62EBBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B033E-35F6-4379-BAE9-066FE9AAF042}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
-  <si>
-    <t>Raster</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Used to train model</t>
   </si>
@@ -72,28 +69,45 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Yes (from DEM and DSM)</t>
+  </si>
+  <si>
+    <t>Yes (from fDHM and DSM)</t>
+  </si>
+  <si>
+    <t>Yes (from DSM)</t>
+  </si>
+  <si>
+    <t>Haralick textures</t>
+  </si>
+  <si>
+    <t>Feature type</t>
+  </si>
+  <si>
+    <t>Raster grid name</t>
+  </si>
+  <si>
+    <t>Elevation-based
+features</t>
+  </si>
+  <si>
+    <t>Non-elevation-
+based features</t>
+  </si>
+  <si>
+    <t>Textural
+features</t>
+  </si>
+  <si>
+    <t>Generated for digital height model only (8 rasters total)</t>
+  </si>
+  <si>
     <t>Generated for surface, elevation,
-height and filtered height models.</t>
+height and filtered height models</t>
   </si>
   <si>
     <t>Generated for surface, elevation, 
-height and filtered height models.</t>
-  </si>
-  <si>
-    <t>Yes (from DEM and DSM)</t>
-  </si>
-  <si>
-    <t>Yes (from fDHM and DSM)</t>
-  </si>
-  <si>
-    <t>Yes (from DSM)</t>
-  </si>
-  <si>
-    <t>Haralick textures</t>
-  </si>
-  <si>
-    <t>Generated for digital height model only.
-8 textures total.</t>
+height and filtered height models</t>
   </si>
 </sst>
 </file>
@@ -152,12 +166,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,163 +463,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/model_paper/data_types.xlsx
+++ b/model_paper/data_types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\riparian-id\model_paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skyjones/Documents/repositories/riparian-id/model_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B033E-35F6-4379-BAE9-066FE9AAF042}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA5481-ADC5-9843-8865-DACD07907A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="10160" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Used to train model</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Appears in decision tree</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Digital surface model</t>
   </si>
   <si>
@@ -54,15 +51,6 @@
     <t>Return raster</t>
   </si>
   <si>
-    <t>Slope rasters</t>
-  </si>
-  <si>
-    <t>Roughness rasters</t>
-  </si>
-  <si>
-    <t>Laplacian filtered rasters</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -76,9 +64,6 @@
   </si>
   <si>
     <t>Yes (from DSM)</t>
-  </si>
-  <si>
-    <t>Haralick textures</t>
   </si>
   <si>
     <t>Feature type</t>
@@ -99,22 +84,27 @@
 features</t>
   </si>
   <si>
-    <t>Generated for digital height model only (8 rasters total)</t>
-  </si>
-  <si>
-    <t>Generated for surface, elevation,
-height and filtered height models</t>
-  </si>
-  <si>
-    <t>Generated for surface, elevation, 
-height and filtered height models</t>
+    <t>Slope rasters
+(from surface, elevation, height, and filtered height models)</t>
+  </si>
+  <si>
+    <t>Roughness rasters
+(from surface, elevation, height, and filtered height models)</t>
+  </si>
+  <si>
+    <t>Laplacian filtered rasters
+(from surface, elevation, height, and filtered height models)</t>
+  </si>
+  <si>
+    <t>Haralick textures
+(generated for digital height model only)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +119,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,15 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -182,6 +172,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,27 +462,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -491,152 +489,131 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
